--- a/Templates/student.xlsx
+++ b/Templates/student.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -50,6 +50,72 @@
   </si>
   <si>
     <t>Effort Level</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Self Management</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Thinking</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Uzen</t>
+  </si>
+  <si>
+    <t>Huang</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Kung</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
+    <t>Qiu</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessie </t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -216,7 +282,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -226,22 +292,28 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1337,9 +1409,9 @@
     <col min="3" max="6" width="8.35156" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.7266" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.35156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.61719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.46094" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.0469" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5781" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3359" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.03125" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.35156" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.3594" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.35156" style="1" customWidth="1"/>
@@ -1387,94 +1459,250 @@
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="A2" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="A3" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="A4" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="A5" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="A6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="A7" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Templates/student.xlsx
+++ b/Templates/student.xlsx
@@ -5,13 +5,61 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - student" sheetId="1" r:id="rId4"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="G7" sheetId="2" r:id="rId5"/>
+    <sheet name="G8" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>G7</t>
+    </r>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>G8</t>
+    </r>
+  </si>
   <si>
     <t>First Name</t>
   </si>
@@ -97,6 +145,9 @@
     <t>Kung</t>
   </si>
   <si>
+    <t>Organization</t>
+  </si>
+  <si>
     <t>Irina</t>
   </si>
   <si>
@@ -116,6 +167,24 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>Udit</t>
+  </si>
+  <si>
+    <t>Vyas</t>
+  </si>
+  <si>
+    <t>Niubi</t>
+  </si>
+  <si>
+    <t>Lau</t>
+  </si>
+  <si>
+    <t>Yaqing</t>
+  </si>
+  <si>
+    <t>Iris</t>
   </si>
 </sst>
 </file>
@@ -125,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -137,13 +206,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +243,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -173,107 +276,225 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="15"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -282,39 +503,144 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -333,6 +659,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -353,10 +684,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -533,11 +864,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -546,34 +880,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -821,12 +1155,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1117,7 +1451,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1398,311 +1732,878 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
+    <hyperlink ref="D10" location="'G7'!R1C1" tooltip="" display="G7"/>
+    <hyperlink ref="D12" location="'G7'!R1C1" tooltip="" display="G7"/>
+    <hyperlink ref="D14" location="'G8'!R1C1" tooltip="" display="G8"/>
+    <hyperlink ref="D12" location="'G7'!R1C1" tooltip="" display="G7"/>
+    <hyperlink ref="D14" location="'G8'!R1C1" tooltip="" display="G8"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1172" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7266" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.35156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5781" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3359" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.03125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.35156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3594" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.35156" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="25" customWidth="1"/>
+    <col min="3" max="6" width="8.35156" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11.6719" style="25" customWidth="1"/>
+    <col min="8" max="8" width="8.35156" style="25" customWidth="1"/>
+    <col min="9" max="9" width="14.6719" style="25" customWidth="1"/>
+    <col min="10" max="10" width="17.3516" style="25" customWidth="1"/>
+    <col min="11" max="11" width="9" style="25" customWidth="1"/>
+    <col min="12" max="12" width="8.35156" style="25" customWidth="1"/>
+    <col min="13" max="13" width="14.3516" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="8.35156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+      <c r="A1" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>24</v>
+      </c>
+      <c r="C2" s="29">
+        <v>8</v>
+      </c>
+      <c r="D2" s="29">
+        <v>8</v>
+      </c>
+      <c r="E2" s="29">
+        <v>8</v>
+      </c>
+      <c r="F2" s="29">
+        <v>8</v>
+      </c>
+      <c r="G2" s="29">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="M2" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="31">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="32">
+        <v>30</v>
+      </c>
+      <c r="C3" s="33">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D3" s="33">
+        <v>1</v>
+      </c>
+      <c r="E3" s="33">
+        <v>1</v>
+      </c>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s" s="34">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s" s="34">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="M3" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="31">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="32">
+        <v>35</v>
+      </c>
+      <c r="C4" s="33">
+        <v>3</v>
+      </c>
+      <c r="D4" s="33">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33">
+        <v>8</v>
+      </c>
+      <c r="G4" s="33">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s" s="34">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="34">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="M4" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="31">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="32">
+        <v>37</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s" s="34">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="34">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="M5" s="33">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="31">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="32">
+        <v>40</v>
+      </c>
+      <c r="C6" s="33">
+        <v>7</v>
+      </c>
+      <c r="D6" s="33">
+        <v>6</v>
+      </c>
+      <c r="E6" s="33">
+        <v>7</v>
+      </c>
+      <c r="F6" s="33">
+        <v>8</v>
+      </c>
+      <c r="G6" s="33">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="34">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s" s="34">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s" s="34">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s" s="34">
+        <v>42</v>
+      </c>
+      <c r="M6" s="33">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="31">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="32">
+        <v>44</v>
+      </c>
+      <c r="C7" s="33">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33">
+        <v>8</v>
+      </c>
+      <c r="E7" s="33">
+        <v>8</v>
+      </c>
+      <c r="F7" s="33">
+        <v>7</v>
+      </c>
+      <c r="G7" s="33">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s" s="34">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s" s="34">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s" s="34">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s" s="34">
+        <v>41</v>
+      </c>
+      <c r="M7" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="13" width="16.3516" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="27">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="40">
+        <v>47</v>
+      </c>
+      <c r="C2" s="41">
+        <v>8</v>
+      </c>
+      <c r="D2" s="41">
+        <v>8</v>
+      </c>
+      <c r="E2" s="41">
+        <v>8</v>
+      </c>
+      <c r="F2" s="41">
+        <v>8</v>
+      </c>
+      <c r="G2" s="41">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="42">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s" s="42">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="42">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s" s="42">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s" s="42">
+        <v>28</v>
+      </c>
+      <c r="M2" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" t="s" s="31">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="43">
+        <v>48</v>
+      </c>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44">
+        <v>1</v>
+      </c>
+      <c r="E3" s="44">
+        <v>1</v>
+      </c>
+      <c r="F3" s="44">
+        <v>1</v>
+      </c>
+      <c r="G3" s="44">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s" s="45">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s" s="45">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s" s="45">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="M3" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" t="s" s="31">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="43">
+        <v>49</v>
+      </c>
+      <c r="C4" s="44">
+        <v>3</v>
+      </c>
+      <c r="D4" s="44">
+        <v>3</v>
+      </c>
+      <c r="E4" s="44">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F4" s="44">
+        <v>8</v>
+      </c>
+      <c r="G4" s="44">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="H4" t="s" s="45">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s" s="45">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="45">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s" s="45">
+        <v>28</v>
+      </c>
+      <c r="M4" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" t="s" s="31">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2</v>
+      </c>
+      <c r="E5" s="44">
+        <v>1</v>
+      </c>
+      <c r="F5" s="44">
+        <v>2</v>
+      </c>
+      <c r="G5" s="44">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s" s="45">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s" s="45">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s" s="45">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="M5" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" t="s" s="31">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s" s="43">
+        <v>40</v>
+      </c>
+      <c r="C6" s="44">
+        <v>7</v>
+      </c>
+      <c r="D6" s="44">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="E6" s="44">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="F6" s="44">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="G6" s="44">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s" s="45">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="45">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s" s="45">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s" s="45">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="M6" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" t="s" s="31">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="43">
+        <v>44</v>
+      </c>
+      <c r="C7" s="44">
+        <v>6</v>
+      </c>
+      <c r="D7" s="44">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E7" s="44">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F7" s="44">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="G7" s="44">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s" s="45">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s" s="45">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s" s="45">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s" s="45">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s" s="45">
+        <v>41</v>
+      </c>
+      <c r="M7" s="44">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9">
-        <v>8</v>
-      </c>
-      <c r="G4" s="9">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="M5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C6" s="9">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9">
-        <v>8</v>
-      </c>
-      <c r="G6" s="9">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="M6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9">
-        <v>8</v>
-      </c>
-      <c r="F7" s="9">
-        <v>7</v>
-      </c>
-      <c r="G7" s="9">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="M7" s="9">
-        <v>3</v>
-      </c>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
